--- a/biology/Médecine/Commission_de_l'environnement,_de_la_santé_publique_et_de_la_sécurité_alimentaire/Commission_de_l'environnement,_de_la_santé_publique_et_de_la_sécurité_alimentaire.xlsx
+++ b/biology/Médecine/Commission_de_l'environnement,_de_la_santé_publique_et_de_la_sécurité_alimentaire/Commission_de_l'environnement,_de_la_santé_publique_et_de_la_sécurité_alimentaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Commission_de_l%27environnement,_de_la_sant%C3%A9_publique_et_de_la_s%C3%A9curit%C3%A9_alimentaire</t>
+          <t>Commission_de_l'environnement,_de_la_santé_publique_et_de_la_sécurité_alimentaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,41 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La commission de l'environnement, de la santé publique et de la sécurité alimentaire (ENVI) est l'une des 22 commissions et sous-commissions du Parlement européen. Elle est devenue en 2019 la plus importante passant de 69 à 76 députés[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La commission de l'environnement, de la santé publique et de la sécurité alimentaire (ENVI) est l'une des 22 commissions et sous-commissions du Parlement européen. Elle est devenue en 2019 la plus importante passant de 69 à 76 députés.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Commission_de_l%27environnement,_de_la_sant%C3%A9_publique_et_de_la_s%C3%A9curit%C3%A9_alimentaire</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Commission_de_l%27environnement,_de_la_sant%C3%A9_publique_et_de_la_s%C3%A9curit%C3%A9_alimentaire</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Principaux membres</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Législature 2019-2024
-Législature 2009-2014</t>
         </is>
       </c>
     </row>
